--- a/L02_L03_FA23/L03 Artificial Flower Data.xlsx
+++ b/L02_L03_FA23/L03 Artificial Flower Data.xlsx
@@ -13437,11 +13437,21 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
@@ -13453,11 +13463,21 @@
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -13469,11 +13489,21 @@
       <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
@@ -13485,11 +13515,21 @@
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="D5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -13501,11 +13541,21 @@
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -13517,11 +13567,21 @@
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="D7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -13533,11 +13593,21 @@
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
@@ -13549,11 +13619,21 @@
       <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -13565,11 +13645,21 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
@@ -13581,11 +13671,21 @@
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
@@ -13597,11 +13697,21 @@
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
@@ -13613,11 +13723,21 @@
       <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="D13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
@@ -13629,11 +13749,21 @@
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
@@ -13645,11 +13775,21 @@
       <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
@@ -13661,11 +13801,21 @@
       <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
@@ -13677,11 +13827,21 @@
       <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="D17" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
@@ -13693,11 +13853,21 @@
       <c r="C18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="D18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="29" t="s">
@@ -13709,11 +13879,21 @@
       <c r="C19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="D19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="29" t="s">
@@ -13725,11 +13905,21 @@
       <c r="C20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="D20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
@@ -13741,11 +13931,21 @@
       <c r="C21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="D21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
@@ -13757,11 +13957,21 @@
       <c r="C22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="D22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="29" t="s">
@@ -13773,11 +13983,21 @@
       <c r="C23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="D23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="29" t="s">
@@ -13789,11 +14009,21 @@
       <c r="C24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="D24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
@@ -13805,11 +14035,21 @@
       <c r="C25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="D25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
@@ -13821,11 +14061,21 @@
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+      <c r="D26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="29" t="s">
@@ -13837,11 +14087,21 @@
       <c r="C27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="D27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="29" t="s">
@@ -13853,11 +14113,21 @@
       <c r="C28" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="D28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="34" t="s">
@@ -13869,11 +14139,21 @@
       <c r="C29" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
+      <c r="D29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
@@ -13885,11 +14165,21 @@
       <c r="C30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="D30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="29" t="s">
@@ -13901,11 +14191,21 @@
       <c r="C31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="D31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="29" t="s">
@@ -13917,11 +14217,21 @@
       <c r="C32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="D32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="34" t="s">
@@ -13933,11 +14243,21 @@
       <c r="C33" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="D33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="41">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/L02_L03_FA23/L03 Artificial Flower Data.xlsx
+++ b/L02_L03_FA23/L03 Artificial Flower Data.xlsx
@@ -4,11 +4,11 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="example" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="blank" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Savanna &amp; Lamia" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Team Alicia &amp; Jhrenara" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Jorge &amp; Nick" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Ethan &amp; Yui" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Summer Jose" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Summer &amp; Jose" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Melissa &amp; Anya" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Copy of example" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Leilani and Anais and Casey" sheetId="9" r:id="rId12"/>
@@ -17,12 +17,11 @@
     <sheet state="visible" name="Erica &amp; Erin" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="Angie &amp; Roxie" sheetId="13" r:id="rId16"/>
     <sheet state="visible" name="Lily and Emilio" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="savanna&amp;Lamia" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="ceasar and abi" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="Alice and Charlotte" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="Willow Jose" sheetId="18" r:id="rId21"/>
-    <sheet state="visible" name="Marcella and Jenan" sheetId="19" r:id="rId22"/>
-    <sheet state="visible" name="Madeleine &amp; Nigella" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="ceasar and abi" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="Alice and Charlotte" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="Willow Jose" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="Marcella and Jenan" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="Madeleine &amp; Nigella" sheetId="19" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="14">
   <si>
     <t>Flower</t>
   </si>
@@ -414,10 +413,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -4148,6 +4143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5014,6 +5010,9 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5943,11 +5942,21 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
@@ -5959,11 +5968,21 @@
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -5975,11 +5994,21 @@
       <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
@@ -5991,11 +6020,21 @@
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="D5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -6007,11 +6046,21 @@
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -6023,11 +6072,21 @@
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="D7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -6039,11 +6098,21 @@
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
@@ -6055,11 +6124,21 @@
       <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -6071,11 +6150,21 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
@@ -6087,11 +6176,21 @@
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
@@ -6103,11 +6202,21 @@
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
@@ -6119,11 +6228,21 @@
       <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="D13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
@@ -6135,11 +6254,21 @@
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
@@ -6151,11 +6280,21 @@
       <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
@@ -6167,11 +6306,21 @@
       <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="G16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
@@ -6183,11 +6332,21 @@
       <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="D17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
@@ -6199,11 +6358,21 @@
       <c r="C18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="D18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="29" t="s">
@@ -6215,11 +6384,21 @@
       <c r="C19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="D19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="29" t="s">
@@ -6231,11 +6410,21 @@
       <c r="C20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="D20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
@@ -6247,11 +6436,21 @@
       <c r="C21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="D21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
@@ -6263,11 +6462,21 @@
       <c r="C22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="D22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="29" t="s">
@@ -6279,11 +6488,21 @@
       <c r="C23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="D23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="29" t="s">
@@ -6295,11 +6514,21 @@
       <c r="C24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="D24" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
@@ -6311,11 +6540,21 @@
       <c r="C25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="D25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
@@ -6327,11 +6566,21 @@
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+      <c r="D26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="29" t="s">
@@ -6343,11 +6592,21 @@
       <c r="C27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="D27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="29" t="s">
@@ -6359,11 +6618,21 @@
       <c r="C28" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="D28" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="34" t="s">
@@ -6375,11 +6644,21 @@
       <c r="C29" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
+      <c r="D29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
@@ -6391,11 +6670,21 @@
       <c r="C30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="D30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="29" t="s">
@@ -6407,11 +6696,21 @@
       <c r="C31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="D31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="29" t="s">
@@ -6423,11 +6722,21 @@
       <c r="C32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="D32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="34" t="s">
@@ -6439,11 +6748,21 @@
       <c r="C33" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="D33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="41">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6500,7 +6819,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="42">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="42">
         <v>0.0</v>
@@ -6526,7 +6845,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="43">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" s="43">
         <v>0.0</v>
@@ -6535,7 +6854,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="43">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" s="22">
         <v>0.0</v>
@@ -6558,7 +6877,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="43">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" s="43">
         <v>0.0</v>
@@ -6662,10 +6981,10 @@
         <v>0.0</v>
       </c>
       <c r="F8" s="43">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" s="43">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H8" s="22">
         <v>0.0</v>
@@ -6708,7 +7027,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="42">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="42">
         <v>0.0</v>
@@ -6743,7 +7062,7 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="43">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" s="22">
         <v>0.0</v>
@@ -6769,7 +7088,7 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="43">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H12" s="22">
         <v>0.0</v>
@@ -6812,7 +7131,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="42">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="42">
         <v>0.0</v>
@@ -6838,13 +7157,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="43">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E15" s="43">
         <v>0.0</v>
       </c>
       <c r="F15" s="43">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" s="43">
         <v>0.0</v>
@@ -6864,16 +7183,16 @@
         <v>11</v>
       </c>
       <c r="D16" s="43">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="43">
         <v>0.0</v>
       </c>
       <c r="F16" s="43">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" s="43">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H16" s="22">
         <v>0.0</v>
@@ -6890,7 +7209,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="44">
         <v>0.0</v>
@@ -6916,7 +7235,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="45">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="E18" s="45">
         <v>0.0</v>
@@ -6942,7 +7261,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="46">
         <v>0.0</v>
@@ -6968,13 +7287,13 @@
         <v>11</v>
       </c>
       <c r="D20" s="46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="46">
         <v>0.0</v>
       </c>
       <c r="F20" s="46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" s="46">
         <v>0.0</v>
@@ -7020,10 +7339,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="45">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="45">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F22" s="45">
         <v>0.0</v>
@@ -7046,19 +7365,19 @@
         <v>10</v>
       </c>
       <c r="D23" s="46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E23" s="46">
         <v>0.0</v>
       </c>
       <c r="F23" s="46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" s="46">
         <v>0.0</v>
       </c>
       <c r="H23" s="40">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -7072,7 +7391,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="46">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" s="46">
         <v>0.0</v>
@@ -7127,7 +7446,7 @@
         <v>0.0</v>
       </c>
       <c r="E26" s="45">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" s="45">
         <v>0.0</v>
@@ -7153,7 +7472,7 @@
         <v>0.0</v>
       </c>
       <c r="E27" s="46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F27" s="46">
         <v>0.0</v>
@@ -7176,7 +7495,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E28" s="46">
         <v>0.0</v>
@@ -7260,7 +7579,7 @@
         <v>0.0</v>
       </c>
       <c r="F31" s="46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" s="46">
         <v>0.0</v>
@@ -7280,7 +7599,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E32" s="46">
         <v>0.0</v>
@@ -7375,21 +7694,11 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0.0</v>
-      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
@@ -7401,21 +7710,11 @@
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -7427,21 +7726,11 @@
       <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
@@ -7453,21 +7742,11 @@
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.0</v>
-      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -7479,21 +7758,11 @@
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.0</v>
-      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -7505,21 +7774,11 @@
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -7531,21 +7790,11 @@
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="G8" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
@@ -7557,21 +7806,11 @@
       <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0.0</v>
-      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -7583,21 +7822,11 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0.0</v>
-      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
@@ -7609,21 +7838,11 @@
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
@@ -7635,21 +7854,11 @@
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
@@ -7661,21 +7870,11 @@
       <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0.0</v>
-      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
@@ -7687,21 +7886,11 @@
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0.0</v>
-      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
@@ -7713,21 +7902,11 @@
       <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
@@ -7739,21 +7918,11 @@
       <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
@@ -7765,21 +7934,11 @@
       <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="23">
-        <v>0.0</v>
-      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
@@ -7791,21 +7950,11 @@
       <c r="C18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="45">
-        <v>9.0</v>
-      </c>
-      <c r="E18" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G18" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="39">
-        <v>0.0</v>
-      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19">
       <c r="A19" s="29" t="s">
@@ -7817,21 +7966,11 @@
       <c r="C19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20">
       <c r="A20" s="29" t="s">
@@ -7843,21 +7982,11 @@
       <c r="C20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
@@ -7869,21 +7998,11 @@
       <c r="C21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="41">
-        <v>0.0</v>
-      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
@@ -7895,21 +8014,11 @@
       <c r="C22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="45">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="39">
-        <v>0.0</v>
-      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23">
       <c r="A23" s="29" t="s">
@@ -7921,21 +8030,11 @@
       <c r="C23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="40">
-        <v>2.0</v>
-      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24">
       <c r="A24" s="29" t="s">
@@ -7947,21 +8046,11 @@
       <c r="C24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="46">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
@@ -7973,21 +8062,11 @@
       <c r="C25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="41">
-        <v>0.0</v>
-      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
@@ -7999,21 +8078,11 @@
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="39">
-        <v>0.0</v>
-      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27">
       <c r="A27" s="29" t="s">
@@ -8025,21 +8094,11 @@
       <c r="C27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28">
       <c r="A28" s="29" t="s">
@@ -8051,21 +8110,11 @@
       <c r="C28" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29">
       <c r="A29" s="34" t="s">
@@ -8077,21 +8126,11 @@
       <c r="C29" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="41">
-        <v>0.0</v>
-      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
@@ -8103,21 +8142,11 @@
       <c r="C30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="E30" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G30" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="39">
-        <v>0.0</v>
-      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31">
       <c r="A31" s="29" t="s">
@@ -8129,21 +8158,11 @@
       <c r="C31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="G31" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32">
       <c r="A32" s="29" t="s">
@@ -8155,21 +8174,11 @@
       <c r="C32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="E32" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G32" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33">
       <c r="A33" s="34" t="s">
@@ -8181,21 +8190,11 @@
       <c r="C33" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="E33" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="41">
-        <v>0.0</v>
-      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8251,11 +8250,21 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
@@ -8267,11 +8276,21 @@
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -8283,11 +8302,21 @@
       <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
@@ -8299,11 +8328,21 @@
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="D5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -8315,11 +8354,21 @@
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -8331,11 +8380,21 @@
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="D7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -8347,11 +8406,21 @@
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
@@ -8363,11 +8432,21 @@
       <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -8379,11 +8458,21 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
@@ -8395,11 +8484,21 @@
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
@@ -8411,11 +8510,21 @@
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
@@ -8427,11 +8536,21 @@
       <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="D13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
@@ -8443,11 +8562,21 @@
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
@@ -8459,11 +8588,21 @@
       <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
@@ -8475,11 +8614,21 @@
       <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
@@ -8491,11 +8640,21 @@
       <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="D17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
@@ -8507,11 +8666,21 @@
       <c r="C18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="D18" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="29" t="s">
@@ -8523,11 +8692,21 @@
       <c r="C19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="D19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="29" t="s">
@@ -8539,11 +8718,21 @@
       <c r="C20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="D20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
@@ -8555,11 +8744,21 @@
       <c r="C21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="D21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
@@ -8571,11 +8770,21 @@
       <c r="C22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="D22" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="29" t="s">
@@ -8587,11 +8796,21 @@
       <c r="C23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="D23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="29" t="s">
@@ -8603,11 +8822,21 @@
       <c r="C24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="D24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
@@ -8619,11 +8848,21 @@
       <c r="C25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="D25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
@@ -8635,11 +8874,21 @@
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+      <c r="D26" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="29" t="s">
@@ -8651,11 +8900,21 @@
       <c r="C27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="D27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="29" t="s">
@@ -8667,11 +8926,21 @@
       <c r="C28" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="D28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="34" t="s">
@@ -8683,11 +8952,21 @@
       <c r="C29" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
+      <c r="D29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
@@ -8699,11 +8978,21 @@
       <c r="C30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="D30" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="29" t="s">
@@ -8715,11 +9004,21 @@
       <c r="C31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="D31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="29" t="s">
@@ -8731,11 +9030,21 @@
       <c r="C32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="D32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="34" t="s">
@@ -8747,11 +9056,21 @@
       <c r="C33" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="D33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="41">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8807,21 +9126,11 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0.0</v>
-      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
@@ -8833,21 +9142,11 @@
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -8859,21 +9158,11 @@
       <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
@@ -8885,21 +9174,11 @@
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.0</v>
-      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -8912,20 +9191,14 @@
         <v>9</v>
       </c>
       <c r="D6" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="42">
-        <v>0.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -8938,20 +9211,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="43">
-        <v>0.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="12"/>
       <c r="F7" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -8963,21 +9230,11 @@
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
@@ -8989,21 +9246,11 @@
       <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0.0</v>
-      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -9015,20 +9262,12 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="42">
-        <v>0.0</v>
-      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="20">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -9041,21 +9280,11 @@
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
@@ -9067,21 +9296,11 @@
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
@@ -9093,20 +9312,12 @@
       <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="44">
-        <v>0.0</v>
-      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -9119,21 +9330,11 @@
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0.0</v>
-      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
@@ -9145,21 +9346,11 @@
       <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
@@ -9171,21 +9362,11 @@
       <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
@@ -9197,21 +9378,11 @@
       <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="23">
-        <v>0.0</v>
-      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
@@ -9223,21 +9394,11 @@
       <c r="C18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G18" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="39">
-        <v>0.0</v>
-      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19">
       <c r="A19" s="29" t="s">
@@ -9249,21 +9410,11 @@
       <c r="C19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20">
       <c r="A20" s="29" t="s">
@@ -9275,21 +9426,11 @@
       <c r="C20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
@@ -9301,21 +9442,11 @@
       <c r="C21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="41">
-        <v>0.0</v>
-      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
@@ -9330,18 +9461,10 @@
       <c r="D22" s="45">
         <v>3.0</v>
       </c>
-      <c r="E22" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="39">
-        <v>0.0</v>
-      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23">
       <c r="A23" s="29" t="s">
@@ -9353,21 +9476,11 @@
       <c r="C23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24">
       <c r="A24" s="29" t="s">
@@ -9379,21 +9492,11 @@
       <c r="C24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
@@ -9405,21 +9508,11 @@
       <c r="C25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="41">
-        <v>0.0</v>
-      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
@@ -9431,21 +9524,11 @@
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="39">
-        <v>0.0</v>
-      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27">
       <c r="A27" s="29" t="s">
@@ -9457,21 +9540,11 @@
       <c r="C27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28">
       <c r="A28" s="29" t="s">
@@ -9483,21 +9556,11 @@
       <c r="C28" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29">
       <c r="A29" s="34" t="s">
@@ -9509,21 +9572,11 @@
       <c r="C29" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="41">
-        <v>0.0</v>
-      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
@@ -9535,21 +9588,11 @@
       <c r="C30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="G30" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="39">
-        <v>0.0</v>
-      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31">
       <c r="A31" s="29" t="s">
@@ -9561,21 +9604,11 @@
       <c r="C31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G31" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32">
       <c r="A32" s="29" t="s">
@@ -9587,21 +9620,11 @@
       <c r="C32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="E32" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="G32" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="40">
-        <v>0.0</v>
-      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33">
       <c r="A33" s="34" t="s">
@@ -9613,21 +9636,11 @@
       <c r="C33" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="E33" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="41">
-        <v>0.0</v>
-      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9683,11 +9696,21 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
@@ -9699,11 +9722,21 @@
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
@@ -9715,11 +9748,21 @@
       <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
@@ -9731,11 +9774,21 @@
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="D5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -9747,11 +9800,21 @@
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -9763,11 +9826,21 @@
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="D7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -9779,11 +9852,21 @@
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
@@ -9795,11 +9878,21 @@
       <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -9811,11 +9904,21 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
@@ -9827,11 +9930,21 @@
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
@@ -9843,11 +9956,21 @@
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
@@ -9859,11 +9982,21 @@
       <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="D13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
@@ -9875,11 +10008,21 @@
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
@@ -9891,11 +10034,21 @@
       <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
@@ -9907,11 +10060,21 @@
       <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
@@ -9923,11 +10086,21 @@
       <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="D17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
@@ -9939,11 +10112,21 @@
       <c r="C18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="D18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="29" t="s">
@@ -9955,11 +10138,21 @@
       <c r="C19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="D19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="29" t="s">
@@ -9971,11 +10164,21 @@
       <c r="C20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="D20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
@@ -9987,11 +10190,21 @@
       <c r="C21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="D21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
@@ -10003,11 +10216,21 @@
       <c r="C22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="D22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="29" t="s">
@@ -10019,11 +10242,21 @@
       <c r="C23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="D23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="29" t="s">
@@ -10035,11 +10268,21 @@
       <c r="C24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="D24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
@@ -10051,11 +10294,21 @@
       <c r="C25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="D25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
@@ -10067,11 +10320,21 @@
       <c r="C26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+      <c r="D26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="29" t="s">
@@ -10083,11 +10346,21 @@
       <c r="C27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="D27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="29" t="s">
@@ -10099,11 +10372,21 @@
       <c r="C28" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="D28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="34" t="s">
@@ -10115,11 +10398,21 @@
       <c r="C29" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
+      <c r="D29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="41">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
@@ -10131,11 +10424,21 @@
       <c r="C30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="D30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="29" t="s">
@@ -10147,11 +10450,21 @@
       <c r="C31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="D31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="29" t="s">
@@ -10163,11 +10476,21 @@
       <c r="C32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="D32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="40">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="34" t="s">
@@ -10179,581 +10502,21 @@
       <c r="C33" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="12.25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="20">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="23">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="45">
-        <v>3.0</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="39">
-        <v>4.0</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="41">
-        <v>4.0</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="D33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="41">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -14316,7 +14079,9 @@
       <c r="D2" s="42">
         <v>2.0</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="42">
+        <v>0.0</v>
+      </c>
       <c r="F2" s="42">
         <v>1.0</v>
       </c>
@@ -15986,6 +15751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16854,6 +16620,9 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToWidth="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>